--- a/Teste/excel_files/datas.xlsx
+++ b/Teste/excel_files/datas.xlsx
@@ -55,10 +55,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,6 +143,31 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ResultsTable" displayName="ResultsTable" ref="A1:P3" headerRowCount="1">
+  <autoFilter ref="A1:P3"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Simulation"/>
+    <tableColumn id="2" name="Iteration number"/>
+    <tableColumn id="3" name="Parameter Set"/>
+    <tableColumn id="4" name="Best Set of Iteraction"/>
+    <tableColumn id="5" name="Condition"/>
+    <tableColumn id="6" name="Parameter C1"/>
+    <tableColumn id="7" name="Parameter C2"/>
+    <tableColumn id="8" name="Parameter C3"/>
+    <tableColumn id="9" name="Parameter D2"/>
+    <tableColumn id="10" name="Parameter Ts"/>
+    <tableColumn id="11" name="Parameter p"/>
+    <tableColumn id="12" name="Error"/>
+    <tableColumn id="13" name="Error Fc"/>
+    <tableColumn id="14" name="Error Fn"/>
+    <tableColumn id="15" name="Error CCR"/>
+    <tableColumn id="16" name="Error CSR"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,106 +459,109 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="16" max="16"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Simulation</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Iteration number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Parameter Set</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Best Set of Iteraction</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Parameter C1</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Parameter C2</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Parameter C3</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Parameter D2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Parameter Ts</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Parameter p</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Experiment Cutting Force</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Simulation Cutting Force</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Error Fc</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Experiment Normal Force</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Simulation Normal Force</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Error Fn</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Experiment CCR</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Simulation CCR</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Error CCR</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Experiment CSR</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Simulation CSR</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Error CSR</t>
         </is>
@@ -534,249 +571,110 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>v1000_h100_gam-6</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E2" t="n">
-        <v>698.6</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.2250768888080738</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1565.5</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1990.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.2715618013414245</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1065.04</v>
-      </c>
-      <c r="L2" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.1752422444227447</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.062568921724777</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.194309014951259</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.027603741665263</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1645498035241764</v>
+      <c r="F2" s="3" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.8544</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>607.4269</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.5537</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.1465307122484113</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.1114021079527308</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>-0.193635919777661</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>-0.1938100653590669</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>-0.163520266112332</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>v1000_h100_gam-6</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>617.35</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2139301304421528</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1565.5</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1990.63</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.2715618013414245</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1065.04</v>
-      </c>
-      <c r="L3" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.1752422444227447</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.177950230430701</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1492381912380075</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.040719192448378</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.1538868354078227</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+      <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>v166_h100_gam6</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E4" t="n">
-        <v>698.6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.1780542675400495</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1565.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1990.63</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2715618013414245</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1065.04</v>
-      </c>
-      <c r="L4" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.1752422444227447</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.300556962543746</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.1013449365063493</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.257552954023626</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.02240077562896433</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>v166_h100_gam6</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="E5" t="n">
-        <v>617.35</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1718800774987252</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1565.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1990.63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2715618013414245</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1065.04</v>
-      </c>
-      <c r="L5" t="n">
-        <v>878.4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.1752422444227447</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.324842339007357</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.09185846132525113</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.228749950257767</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.001016300603441441</v>
+      <c r="F3" s="3" t="n">
+        <v>0.0167</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>0.0073</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>0.8544</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>607.4269</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>0.5537</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.1135800611974533</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.1538230597253273</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.1191974010365808</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>-0.1013524497789593</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.02239150637669849</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Teste/excel_files/datas.xlsx
+++ b/Teste/excel_files/datas.xlsx
@@ -55,19 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -143,31 +134,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ResultsTable" displayName="ResultsTable" ref="A1:P3" headerRowCount="1">
-  <autoFilter ref="A1:P3"/>
-  <tableColumns count="16">
-    <tableColumn id="1" name="Simulation"/>
-    <tableColumn id="2" name="Iteration number"/>
-    <tableColumn id="3" name="Parameter Set"/>
-    <tableColumn id="4" name="Best Set of Iteraction"/>
-    <tableColumn id="5" name="Condition"/>
-    <tableColumn id="6" name="Parameter C1"/>
-    <tableColumn id="7" name="Parameter C2"/>
-    <tableColumn id="8" name="Parameter C3"/>
-    <tableColumn id="9" name="Parameter D2"/>
-    <tableColumn id="10" name="Parameter Ts"/>
-    <tableColumn id="11" name="Parameter p"/>
-    <tableColumn id="12" name="Error"/>
-    <tableColumn id="13" name="Error Fc"/>
-    <tableColumn id="14" name="Error Fn"/>
-    <tableColumn id="15" name="Error CCR"/>
-    <tableColumn id="16" name="Error CSR"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,102 +432,84 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="21" customWidth="1" min="15" max="15"/>
-    <col width="21" customWidth="1" min="16" max="16"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Simulation</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Iteration number</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Parameter Set</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Best Set of Iteraction</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Parameter C1</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Parameter C2</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Parameter C3</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Parameter D2</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Parameter Ts</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Parameter p</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Error Fc</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Error Fn</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Error CCR</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Error CSR</t>
         </is>
@@ -571,110 +519,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>v1000_h100_gam-6</t>
         </is>
       </c>
-      <c r="F2" s="3" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.8544</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>607.4269</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0.5537</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.1465307122484113</v>
-      </c>
-      <c r="M2" s="4" t="n">
+      <c r="F2" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J2" t="n">
+        <v>630.7487</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6577</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1456442830023108</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.1114021079527308</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" t="n">
         <v>-0.193635919777661</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>-0.1938100653590669</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>-0.163520266112332</v>
+      <c r="O2" t="n">
+        <v>-0.1897420851516675</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1631561000892289</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>v166_h100_gam6</t>
         </is>
       </c>
-      <c r="F3" s="3" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.8544</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>607.4269</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0.5537</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.1135800611974533</v>
-      </c>
-      <c r="M3" s="4" t="n">
+      <c r="F3" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J3" t="n">
+        <v>630.7487</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6577</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.1134615459038491</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.1538230597253273</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" t="n">
         <v>0.1191974010365808</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>-0.1013524497789593</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.02239150637669849</v>
+      <c r="O3" t="n">
+        <v>-0.07534372582010396</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.04780765386753291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>